--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3104630.742127826</v>
+        <v>3213272.903430639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8283767.254384613</v>
+        <v>8289260.900373029</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>286.5888679426061</v>
+        <v>77.40763319824394</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.3387326418233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,16 +873,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>35.62500889323938</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>133.8381454408821</v>
       </c>
       <c r="I5" t="n">
-        <v>56.70882917873372</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>19.59808287680187</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>5.629032701387723</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>66.25196157017319</v>
+        <v>137.3422424334552</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>31.02663828601517</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>148.2920641898491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.0045218773054</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>68.41584059195296</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>223.154644614304</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>28.87857325623989</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.07046444232026</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>71.58885292964064</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>30.40549967255511</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5271979141359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>78.6882778203391</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.87236189622276</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>182.3203821379245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>100.9884800080874</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>86.88943397770092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>43.73846614325537</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4774956074566125</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>245.9606760652098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1190787273706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>239.0860809359009</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854568</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450451</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>815.1145481251086</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884742</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.629344792067</v>
+        <v>641.9376744406312</v>
       </c>
       <c r="C4" t="n">
-        <v>155.629344792067</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>155.629344792067</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1078.270627476758</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="W4" t="n">
-        <v>383.6188956900843</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="X4" t="n">
-        <v>155.629344792067</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.629344792067</v>
+        <v>823.5861392708709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.988596769088</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.026079828676</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="D5" t="n">
-        <v>1221.026079828676</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="E5" t="n">
-        <v>835.237827230432</v>
+        <v>1079.501136697314</v>
       </c>
       <c r="F5" t="n">
-        <v>424.2519224408244</v>
+        <v>668.5152319077067</v>
       </c>
       <c r="G5" t="n">
-        <v>412.5875762055174</v>
+        <v>252.8104816319956</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5284322030877</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.1279287449</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.988596769088</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.9783454282416</v>
+        <v>704.6174692164192</v>
       </c>
       <c r="C7" t="n">
-        <v>471.9783454282416</v>
+        <v>535.6812862885123</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>535.6812862885123</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>387.7681927061192</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>387.7681927061192</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.7817280143978</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>71.04282987790398</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1528.176821972516</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1305.198341167251</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1016.080003671089</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>761.3955154652022</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>471.9783454282416</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>471.9783454282416</v>
+        <v>886.2659340466589</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.9783454282416</v>
+        <v>886.2659340466589</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.644013346617</v>
+        <v>2090.164941720879</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>1716.699183459799</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1716.699183459799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610488</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046014</v>
+        <v>1213.404337421175</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676408</v>
+        <v>923.9871673842143</v>
       </c>
       <c r="X10" t="n">
-        <v>530.8475595395104</v>
+        <v>695.997616486197</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>475.2050373426669</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2310.810470143821</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.209005166763</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1802.133778510961</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5497,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>4103.304614515131</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>4655.214344754419</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4655.214344754419</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2897.617548589219</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C19" t="n">
-        <v>2728.681365661313</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D19" t="n">
-        <v>2728.681365661313</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4072.149801703854</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>3817.465313497967</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3528.048143461006</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X19" t="n">
-        <v>3300.058592562989</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y19" t="n">
-        <v>3079.266013419459</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2526.197884723912</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>3229.995673940461</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>3061.059491012554</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>2910.942851600219</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2763.029758017825</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2616.139810519915</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2448.943711234795</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.62928111327</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2237.774446768175</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.172981791116</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>3632.436717914231</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>3411.644138770701</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3859.943950016836</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3570.526779979876</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.449290305074</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>296.9234711454498</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,34 +6715,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>741.843151638089</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>593.9300580556959</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>447.0401105577855</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>279.8440112726655</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>138.1321801148636</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,25 +6955,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>3195.262992109388</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>3026.326809181481</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>2876.210169769146</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>2728.297076186752</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>2581.407128688842</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3825.693586981175</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.517090583878</v>
+        <v>3597.704036083158</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>3376.911456939628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300425</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>3482.038612289356</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.435061037252</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T40" t="n">
-        <v>2159.833596060193</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U40" t="n">
-        <v>1870.758369404391</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.073881198505</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W40" t="n">
-        <v>1326.656711161544</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263527</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>2257.062161108197</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1439.94072651611</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1150.52355647915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.52355647915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356195</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N45" t="n">
-        <v>4435.461999481584</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>4435.461999481584</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138411</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>766.1780053015053</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>618.2649117191122</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>73.66059580999706</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>54.95314511566477</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.51847645928564</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>112.6104454096916</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>63.368353722287</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>111.416139589984</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.30478226780143</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>149.4264805093822</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>112.6104454096921</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.7431111219896</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>147.0213775686981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>37.39347442234276</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>64.53565828418144</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.63678056686629</v>
       </c>
       <c r="S40" t="n">
-        <v>180.548790394188</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5559695740482</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.176967258618248</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>724510.9882813714</v>
+        <v>730452.9157824422</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287549</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805866</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26436,28 +26438,28 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-621187.7342161417</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597787</v>
+        <v>493564.0493597779</v>
       </c>
       <c r="D6" t="n">
-        <v>331766.0083614583</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="E6" t="n">
-        <v>272820.8586007854</v>
+        <v>90747.87878359562</v>
       </c>
       <c r="F6" t="n">
+        <v>598233.3204081412</v>
+      </c>
+      <c r="G6" t="n">
+        <v>598233.3204081408</v>
+      </c>
+      <c r="H6" t="n">
+        <v>598233.3204081414</v>
+      </c>
+      <c r="I6" t="n">
+        <v>598233.3204081408</v>
+      </c>
+      <c r="J6" t="n">
+        <v>430628.1425981583</v>
+      </c>
+      <c r="K6" t="n">
+        <v>598233.320408141</v>
+      </c>
+      <c r="L6" t="n">
+        <v>598233.3204081405</v>
+      </c>
+      <c r="M6" t="n">
+        <v>465626.0266792143</v>
+      </c>
+      <c r="N6" t="n">
+        <v>598233.320408141</v>
+      </c>
+      <c r="O6" t="n">
         <v>598233.3204081409</v>
       </c>
-      <c r="G6" t="n">
-        <v>598233.3204081407</v>
-      </c>
-      <c r="H6" t="n">
-        <v>598233.3204081405</v>
-      </c>
-      <c r="I6" t="n">
-        <v>598233.3204081407</v>
-      </c>
-      <c r="J6" t="n">
-        <v>430628.1425981581</v>
-      </c>
-      <c r="K6" t="n">
-        <v>598233.3204081405</v>
-      </c>
-      <c r="L6" t="n">
-        <v>549939.3503999497</v>
-      </c>
-      <c r="M6" t="n">
-        <v>513178.2924726289</v>
-      </c>
-      <c r="N6" t="n">
-        <v>598233.3204081404</v>
-      </c>
-      <c r="O6" t="n">
-        <v>598233.3204081407</v>
-      </c>
       <c r="P6" t="n">
-        <v>598233.3204081411</v>
+        <v>598233.320408141</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.09417367807686</v>
+        <v>277.275408422439</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>43.09523000474591</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>250.6021452279612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>167.1804071215233</v>
       </c>
       <c r="I5" t="n">
-        <v>9.001083493736772</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>85.1985123270987</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.0334276603498</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>282.9890071472398</v>
+        <v>211.8987262839578</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>221.1110050378128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>77.41759119918802</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421384</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>175.9603676659962</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238277</v>
+        <v>167.1165249313372</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>164.2853229338194</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>687.544841654958</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980274</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3401249335294</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535151</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>421.8844773977053</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588052</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>35.97859357997467</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378062</v>
+        <v>27.13475084531573</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>25.73094315394525</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>556.2031295716247</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962379</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3209135.746180486</v>
+        <v>3210896.276483274</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>253.827088091123</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>59.48550737293763</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30.95313829082778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>230.8127283073657</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>141.4961092890809</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>143.1891408370034</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>103.2588014327192</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>130.9898714432083</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>117.2278100992629</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>230.7871511611226</v>
       </c>
       <c r="V10" t="n">
-        <v>31.10811072719354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>213.4000178408382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.2147151485303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629284</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>104.1233804225868</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.40444476188367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999791</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>120.1447214650597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>784.9973385935637</v>
+        <v>2051.040280862504</v>
       </c>
       <c r="C2" t="n">
-        <v>784.9973385935637</v>
+        <v>1682.077763922092</v>
       </c>
       <c r="D2" t="n">
-        <v>784.9973385935637</v>
+        <v>1323.812065315341</v>
       </c>
       <c r="E2" t="n">
-        <v>784.9973385935637</v>
+        <v>938.0238127170971</v>
       </c>
       <c r="F2" t="n">
-        <v>374.0114338039561</v>
+        <v>527.0379079274896</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>111.3331576517785</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>111.3331576517785</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657685</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657685</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>343.3111199322561</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>638.0146769637279</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1001.276695922948</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>864.354910933632</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>695.4187280057251</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>545.3020885933894</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>397.3889950109963</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>250.4990475130859</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>82.5125828213645</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1403.301950067057</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1113.884780030097</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>885.8952291320793</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400158</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400158</v>
+        <v>2294.714758008362</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400158</v>
+        <v>2041.133697272542</v>
       </c>
       <c r="V5" t="n">
-        <v>2417.703832605205</v>
+        <v>2041.133697272542</v>
       </c>
       <c r="W5" t="n">
-        <v>2417.703832605205</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X5" t="n">
-        <v>2044.238074344125</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1654.098742368313</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597246</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312208</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693237</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.144300445488</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>1242.727130408528</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.32755894284</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>249.9334371899009</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.927399006962</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1403.327785568313</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.023786006625</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380895</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101826</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978468</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978468</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F19" t="n">
-        <v>422.7903292978468</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683292</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,22 +6056,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,10 +6715,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,16 +7119,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7168,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,16 +7733,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>45.44676101130784</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>114.3555089013358</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878338</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393065</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.005432486450047</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>114.1584408891664</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>61.40075786968204</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038518</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864873</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="L2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>4.27420231517317e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289263</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.7268316248</v>
-      </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707275</v>
+        <v>6897.424496707443</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707304</v>
+        <v>6897.424496707426</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707463</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707315</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707263</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707317</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707301</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621187.7342161415</v>
+        <v>-621187.7342161408</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597776</v>
+        <v>493564.0493597779</v>
       </c>
       <c r="D6" t="n">
-        <v>493564.0493597781</v>
+        <v>493564.0493597783</v>
       </c>
       <c r="E6" t="n">
-        <v>90400.49952923782</v>
+        <v>90713.14085815953</v>
       </c>
       <c r="F6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827058</v>
       </c>
       <c r="G6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.5824827056</v>
       </c>
       <c r="H6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="I6" t="n">
-        <v>597885.9411537836</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="J6" t="n">
-        <v>430280.7633438016</v>
+        <v>430593.4046727227</v>
       </c>
       <c r="K6" t="n">
-        <v>597885.941153784</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="L6" t="n">
-        <v>597885.9411537836</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="M6" t="n">
-        <v>465278.6474248578</v>
+        <v>465591.2887537788</v>
       </c>
       <c r="N6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="O6" t="n">
-        <v>597885.9411537835</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="P6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175396</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>157.720614681831</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.224405299532869</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>116.2983708643011</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>21.32491501646226</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>65.16207569115286</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>184.5631176331315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>148.8788418911088</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>170.028681119197</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.224405299531398</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>55.44000296007798</v>
       </c>
       <c r="V10" t="n">
-        <v>221.0295325966345</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.707472513100999e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>339.3493584601604</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201433</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.959892919255</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>232.0342572547927</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>364.035038024868</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313188</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35111,10 +35111,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902938</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>200.7949786802862</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402692</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359217</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
